--- a/REGULAR/ONT/SANTERA, MARICRIS.xlsx
+++ b/REGULAR/ONT/SANTERA, MARICRIS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="141">
   <si>
     <t>PERIOD</t>
   </si>
@@ -454,6 +454,9 @@
   </si>
   <si>
     <t>UT(0-0-48)</t>
+  </si>
+  <si>
+    <t>12/02,03,07/2023</t>
   </si>
 </sst>
 </file>
@@ -1323,7 +1326,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1366,7 +1369,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1430,7 +1433,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1490,7 +1493,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1556,7 +1559,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1619,7 +1622,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1717,7 +1720,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1776,7 +1779,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1841,7 +1844,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1884,7 +1887,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1959,7 +1962,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2145,7 +2148,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2211,7 +2214,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2269,7 +2272,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2335,7 +2338,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2391,7 +2394,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2466,7 +2469,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2509,7 +2512,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2575,7 +2578,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2631,7 +2634,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2729,7 +2732,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2792,7 +2795,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3239,9 +3242,9 @@
   <dimension ref="A2:K234"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <pane ySplit="3675" topLeftCell="A182" activePane="bottomLeft"/>
-      <selection activeCell="F3" sqref="F3:G3"/>
-      <selection pane="bottomLeft" activeCell="K197" sqref="K197"/>
+      <pane ySplit="3675" topLeftCell="A185" activePane="bottomLeft"/>
+      <selection activeCell="I9" sqref="I9"/>
+      <selection pane="bottomLeft" activeCell="E200" sqref="E200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3406,7 +3409,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>74.450999999999993</v>
+        <v>74.200999999999993</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3416,7 +3419,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>108.25</v>
+        <v>112</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -7571,13 +7574,15 @@
       <c r="B197" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="C197" s="13"/>
+      <c r="C197" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D197" s="39"/>
       <c r="E197" s="9"/>
       <c r="F197" s="20"/>
-      <c r="G197" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G197" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H197" s="39"/>
       <c r="I197" s="9"/>
@@ -7591,13 +7596,15 @@
         <v>45200</v>
       </c>
       <c r="B198" s="20"/>
-      <c r="C198" s="13"/>
+      <c r="C198" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D198" s="39"/>
       <c r="E198" s="9"/>
       <c r="F198" s="20"/>
-      <c r="G198" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G198" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H198" s="39"/>
       <c r="I198" s="9"/>
@@ -7608,27 +7615,39 @@
       <c r="A199" s="40">
         <v>45231</v>
       </c>
-      <c r="B199" s="20"/>
-      <c r="C199" s="13"/>
-      <c r="D199" s="39"/>
+      <c r="B199" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="C199" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D199" s="39">
+        <v>1</v>
+      </c>
       <c r="E199" s="9"/>
       <c r="F199" s="20"/>
-      <c r="G199" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G199" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H199" s="39"/>
       <c r="I199" s="9"/>
       <c r="J199" s="11"/>
-      <c r="K199" s="20"/>
+      <c r="K199" s="48">
+        <v>45237</v>
+      </c>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40">
         <v>45261</v>
       </c>
-      <c r="B200" s="20"/>
+      <c r="B200" s="20" t="s">
+        <v>58</v>
+      </c>
       <c r="C200" s="13"/>
-      <c r="D200" s="39"/>
+      <c r="D200" s="39">
+        <v>3</v>
+      </c>
       <c r="E200" s="9"/>
       <c r="F200" s="20"/>
       <c r="G200" s="13" t="str">
@@ -7638,7 +7657,9 @@
       <c r="H200" s="39"/>
       <c r="I200" s="9"/>
       <c r="J200" s="11"/>
-      <c r="K200" s="20"/>
+      <c r="K200" s="20" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40">
@@ -8420,7 +8441,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="50">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>182.70099999999999</v>
+        <v>186.20099999999999</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
